--- a/TestDataFile/exel sample.xlsx
+++ b/TestDataFile/exel sample.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C029B-F0F4-40A3-B79E-6DCCBEE8CA46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04AD64D-1E09-4DB4-8030-5DAFE06B593B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5364" yWindow="1836" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="REGISTER" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>APPURL</t>
   </si>
@@ -38,6 +39,84 @@
   </si>
   <si>
     <t>http://newtours.demoaut.com/mercuryregister.php</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>MIDDLE NAME</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>POSTAL CODE</t>
+  </si>
+  <si>
+    <t>siva</t>
+  </si>
+  <si>
+    <t>srikanth</t>
+  </si>
+  <si>
+    <t>kumari</t>
+  </si>
+  <si>
+    <t>chitirala</t>
+  </si>
+  <si>
+    <t>nkn</t>
+  </si>
+  <si>
+    <t>guntur</t>
+  </si>
+  <si>
+    <t>vlpuram</t>
+  </si>
+  <si>
+    <t>andhrapradesh</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>def@gmail.com</t>
+  </si>
+  <si>
+    <t>CONFIRM_PASSWORD</t>
+  </si>
+  <si>
+    <t>srikanthsiva</t>
+  </si>
+  <si>
+    <t>siva123</t>
+  </si>
+  <si>
+    <t>srikanth123</t>
+  </si>
+  <si>
+    <t>IRAQ</t>
   </si>
 </sst>
 </file>
@@ -61,12 +140,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,9 +167,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -407,4 +493,159 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA85B29-CCED-4A95-AF8D-48B91454E13D}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>8790113133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>5122221</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>4466464666</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>122222</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{ED065BEC-43BA-4F29-9301-D2F266B48F26}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{93EB3C23-D654-490B-BF95-B6CCBD903B8D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>